--- a/src/assets/files/asq_month.xlsx
+++ b/src/assets/files/asq_month.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13200"/>
+    <workbookView windowWidth="28800" windowHeight="13640"/>
   </bookViews>
   <sheets>
     <sheet name="asq3" sheetId="1" r:id="rId1"/>
+    <sheet name="asqse" sheetId="2" r:id="rId2"/>
+    <sheet name="asqse2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>ASQ3年龄筛选</t>
   </si>
@@ -22,6 +24,15 @@
     <t>2月</t>
   </si>
   <si>
+    <t>1个月0天</t>
+  </si>
+  <si>
+    <t>2个月30天</t>
+  </si>
+  <si>
+    <t>宝宝</t>
+  </si>
+  <si>
     <t>4月</t>
   </si>
   <si>
@@ -31,9 +42,6 @@
     <t>4个月30天</t>
   </si>
   <si>
-    <t>宝宝</t>
-  </si>
-  <si>
     <t>6月</t>
   </si>
   <si>
@@ -203,6 +211,87 @@
   </si>
   <si>
     <t>66个月0天</t>
+  </si>
+  <si>
+    <t>ASQ:SE年龄筛选</t>
+  </si>
+  <si>
+    <t>3个月</t>
+  </si>
+  <si>
+    <t>8个月</t>
+  </si>
+  <si>
+    <t>9个月</t>
+  </si>
+  <si>
+    <t>14个月</t>
+  </si>
+  <si>
+    <t>15个月</t>
+  </si>
+  <si>
+    <t>20个月</t>
+  </si>
+  <si>
+    <t>21个月</t>
+  </si>
+  <si>
+    <t>26个月</t>
+  </si>
+  <si>
+    <t>27个月</t>
+  </si>
+  <si>
+    <t>32个月</t>
+  </si>
+  <si>
+    <t>33个月</t>
+  </si>
+  <si>
+    <t>41个月</t>
+  </si>
+  <si>
+    <t>42个月</t>
+  </si>
+  <si>
+    <t>53个月</t>
+  </si>
+  <si>
+    <t>54个月</t>
+  </si>
+  <si>
+    <t>65个月</t>
+  </si>
+  <si>
+    <t>ASQ:SE-2年龄筛选</t>
+  </si>
+  <si>
+    <t>26个月30天</t>
+  </si>
+  <si>
+    <t>27个月0天</t>
+  </si>
+  <si>
+    <t>32个月30天</t>
+  </si>
+  <si>
+    <t>33个月0天</t>
+  </si>
+  <si>
+    <t>41个月30天</t>
+  </si>
+  <si>
+    <t>42个月0天</t>
+  </si>
+  <si>
+    <t>53个月30天</t>
+  </si>
+  <si>
+    <t>54个月0天</t>
+  </si>
+  <si>
+    <t>72个月0天</t>
   </si>
 </sst>
 </file>
@@ -239,14 +328,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,13 +349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -275,8 +357,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,8 +381,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,9 +420,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,14 +429,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,9 +442,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,24 +456,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,19 +472,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,163 +646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,6 +663,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -602,21 +706,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -633,9 +722,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,11 +748,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,8 +758,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,118 +768,118 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -799,22 +888,22 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1153,7 +1242,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1168,290 +1257,608 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="23.046875" customWidth="1"/>
+    <col min="3" max="3" width="28.640625" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="35.15625" customWidth="1"/>
+    <col min="2" max="2" width="36.84375" customWidth="1"/>
+    <col min="3" max="3" width="33.0703125" customWidth="1"/>
+    <col min="4" max="4" width="46.7421875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/src/assets/files/asq_month.xlsx
+++ b/src/assets/files/asq_month.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13640"/>
+    <workbookView windowWidth="28800" windowHeight="13000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="asq3" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>ASQ3年龄筛选</t>
   </si>
   <si>
+    <t>年龄段</t>
+  </si>
+  <si>
+    <t>年龄段开始</t>
+  </si>
+  <si>
+    <t>年龄段结束</t>
+  </si>
+  <si>
+    <t>称呼</t>
+  </si>
+  <si>
     <t>2月</t>
   </si>
   <si>
@@ -70,6 +82,9 @@
   </si>
   <si>
     <t>10月</t>
+  </si>
+  <si>
+    <t>10个月0天</t>
   </si>
   <si>
     <t>10个月30天</t>
@@ -299,10 +314,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -342,7 +357,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -357,6 +372,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -365,33 +455,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -404,64 +477,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -472,31 +487,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,151 +637,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +678,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -684,49 +749,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -745,165 +778,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1239,10 +1254,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1261,7 +1276,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -1282,273 +1297,287 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1560,10 +1589,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1576,18 +1605,18 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1595,100 +1624,114 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1700,10 +1743,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -1716,17 +1759,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
@@ -1735,130 +1778,129 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/src/assets/files/asq_month.xlsx
+++ b/src/assets/files/asq_month.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick_mac/Documents/work/gitstore/ASQ/asq_frontend/src/assets/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4710996-0043-4543-968E-21D08F3AF39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="asq3" sheetId="1" r:id="rId1"/>
-    <sheet name="asqse" sheetId="2" r:id="rId2"/>
-    <sheet name="asqse2" sheetId="3" r:id="rId3"/>
+    <sheet name="ASQ-3" sheetId="1" r:id="rId1"/>
+    <sheet name="ASQ-SE" sheetId="2" r:id="rId2"/>
+    <sheet name="ASQ-SE2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
   <si>
     <t>ASQ3年龄筛选</t>
   </si>
@@ -312,367 +318,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10.5"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -680,251 +356,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -936,61 +370,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1248,26 +638,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="50.90625" customWidth="1"/>
-    <col min="2" max="2" width="29.6796875" customWidth="1"/>
-    <col min="3" max="3" width="24.7421875" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1581,29 +971,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="23.046875" customWidth="1"/>
-    <col min="3" max="3" width="28.640625" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>70</v>
       </c>
@@ -1735,29 +1124,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="35.15625" customWidth="1"/>
-    <col min="2" max="2" width="36.84375" customWidth="1"/>
-    <col min="3" max="3" width="33.0703125" customWidth="1"/>
-    <col min="4" max="4" width="46.7421875" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -1903,7 +1291,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>